--- a/banhang24/Template/ExportExcel/NhanSu/Teamplate_ChamCong.xlsx
+++ b/banhang24/Template/ExportExcel/NhanSu/Teamplate_ChamCong.xlsx
@@ -717,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
